--- a/receipt_data.xlsx
+++ b/receipt_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjbambul/Documents/Home/SIF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tjbambul/Documents/GitHub/tejashreeb12/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92205FE6-6517-BC40-862C-2157C25D447E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{663C9B42-96B2-FC49-9411-028CC8A93C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70000" yWindow="16460" windowWidth="27640" windowHeight="16940" xr2:uid="{32BAD51C-CA70-6F4A-BEDF-8DA0C24337AA}"/>
+    <workbookView xWindow="35200" yWindow="3840" windowWidth="39960" windowHeight="30460" xr2:uid="{32BAD51C-CA70-6F4A-BEDF-8DA0C24337AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,46 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
-  <si>
-    <t>tejoo@saveindianfarmers.org</t>
-  </si>
-  <si>
-    <t>Tejoo1</t>
-  </si>
-  <si>
-    <t>Tejoo2</t>
-  </si>
-  <si>
-    <t>Tejoo3</t>
-  </si>
-  <si>
-    <t>Tejoo4</t>
-  </si>
-  <si>
-    <t>Tejoo5</t>
-  </si>
-  <si>
-    <t>Tejoo6</t>
-  </si>
-  <si>
-    <t>Tejoo7</t>
-  </si>
-  <si>
-    <t>Tejoo8</t>
-  </si>
-  <si>
-    <t>Tejoo9</t>
-  </si>
-  <si>
-    <t>Tejoo10</t>
-  </si>
-  <si>
-    <t>Tejoo11</t>
-  </si>
-  <si>
-    <t>Tejoo12</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>Name</t>
   </si>
@@ -94,46 +55,322 @@
     <t>tejoo.kiran@gmail.com</t>
   </si>
   <si>
-    <t>tejashree.bambulkar@gmail.com</t>
-  </si>
-  <si>
     <t>receipt_no</t>
   </si>
   <si>
-    <t>20230201-01</t>
-  </si>
-  <si>
-    <t>20230201-02</t>
-  </si>
-  <si>
-    <t>20230201-03</t>
-  </si>
-  <si>
-    <t>20230201-04</t>
-  </si>
-  <si>
-    <t>20230201-05</t>
-  </si>
-  <si>
-    <t>20230201-06</t>
-  </si>
-  <si>
-    <t>20230201-07</t>
-  </si>
-  <si>
-    <t>20230201-08</t>
-  </si>
-  <si>
-    <t>20230201-09</t>
-  </si>
-  <si>
-    <t>20230201-10</t>
-  </si>
-  <si>
-    <t>20230201-11</t>
-  </si>
-  <si>
-    <t>20230201-12</t>
+    <t>divyat2017@gmail.com</t>
+  </si>
+  <si>
+    <t>rbhalla69@hotmail.com</t>
+  </si>
+  <si>
+    <t>sri1212@yahoo.com</t>
+  </si>
+  <si>
+    <t>bkheskani85@gmail.com</t>
+  </si>
+  <si>
+    <t>nanduri.surya@gmail.com</t>
+  </si>
+  <si>
+    <t>svuppala@gmail.com</t>
+  </si>
+  <si>
+    <t>saironprasanna@gmail.com</t>
+  </si>
+  <si>
+    <t>delna.mary.john@gmail.com</t>
+  </si>
+  <si>
+    <t>povneet@hotmail.com</t>
+  </si>
+  <si>
+    <t>iphadke@hotmail.com</t>
+  </si>
+  <si>
+    <t>sukesh.ram7@gmail.com</t>
+  </si>
+  <si>
+    <t>sukuk2003@gmail.com</t>
+  </si>
+  <si>
+    <t>akshitsinghdutt@outlook.com</t>
+  </si>
+  <si>
+    <t>emailmohit@gmail.com</t>
+  </si>
+  <si>
+    <t>chandasaikiran@gmail.com</t>
+  </si>
+  <si>
+    <t>ajay.dusane@rutgers.edu</t>
+  </si>
+  <si>
+    <t>darasimpson4@gmail.com</t>
+  </si>
+  <si>
+    <t>ajeetsharma@sbcglobal.net</t>
+  </si>
+  <si>
+    <t>tanusri.ravi@gmail.com</t>
+  </si>
+  <si>
+    <t>neetuh1@yahoo.com</t>
+  </si>
+  <si>
+    <t>vardhan.nahar@icloud.com</t>
+  </si>
+  <si>
+    <t>shaliny.i@gmail.com</t>
+  </si>
+  <si>
+    <t>s.shamine@yahoo.com</t>
+  </si>
+  <si>
+    <t>athenlcbrady@gmail.com</t>
+  </si>
+  <si>
+    <t>20220201-12</t>
+  </si>
+  <si>
+    <t>20220201-13</t>
+  </si>
+  <si>
+    <t>20220201-14</t>
+  </si>
+  <si>
+    <t>20220201-15</t>
+  </si>
+  <si>
+    <t>20220201-16</t>
+  </si>
+  <si>
+    <t>20220201-17</t>
+  </si>
+  <si>
+    <t>20220201-18</t>
+  </si>
+  <si>
+    <t>20220201-19</t>
+  </si>
+  <si>
+    <t>20220201-20</t>
+  </si>
+  <si>
+    <t>20220201-21</t>
+  </si>
+  <si>
+    <t>20220201-22</t>
+  </si>
+  <si>
+    <t>20220201-23</t>
+  </si>
+  <si>
+    <t>20220201-24</t>
+  </si>
+  <si>
+    <t>20220201-25</t>
+  </si>
+  <si>
+    <t>20220201-26</t>
+  </si>
+  <si>
+    <t>20220201-27</t>
+  </si>
+  <si>
+    <t>20220201-28</t>
+  </si>
+  <si>
+    <t>20220201-29</t>
+  </si>
+  <si>
+    <t>20220201-30</t>
+  </si>
+  <si>
+    <t>20220201-31</t>
+  </si>
+  <si>
+    <t>20220201-32</t>
+  </si>
+  <si>
+    <t>20220201-33</t>
+  </si>
+  <si>
+    <t>20220201-34</t>
+  </si>
+  <si>
+    <t>20220201-35</t>
+  </si>
+  <si>
+    <t>20220201-36</t>
+  </si>
+  <si>
+    <t>20220201-37</t>
+  </si>
+  <si>
+    <t>Sanjeev welling</t>
+  </si>
+  <si>
+    <t>Divya T</t>
+  </si>
+  <si>
+    <t>Rakesh Bhalla</t>
+  </si>
+  <si>
+    <t>Srilakshmi Ganesan</t>
+  </si>
+  <si>
+    <t>Bharat Kheskani</t>
+  </si>
+  <si>
+    <t>Lakshmi Suryachandra Nanduri Venkata</t>
+  </si>
+  <si>
+    <t>Saritha Vuppala</t>
+  </si>
+  <si>
+    <t>Sai Prasanna Baskaran</t>
+  </si>
+  <si>
+    <t>Delna John</t>
+  </si>
+  <si>
+    <t>Povneet Dhillon</t>
+  </si>
+  <si>
+    <t>Indraneel Phadke</t>
+  </si>
+  <si>
+    <t>Sukesh Boggavarapu</t>
+  </si>
+  <si>
+    <t>Suku Kuriakose</t>
+  </si>
+  <si>
+    <t>Akshit Singh Dutt</t>
+  </si>
+  <si>
+    <t>Mohit Khanna</t>
+  </si>
+  <si>
+    <t>Sai kiran chanda</t>
+  </si>
+  <si>
+    <t>Ajay Dusane</t>
+  </si>
+  <si>
+    <t>Dara Simpson</t>
+  </si>
+  <si>
+    <t>Sharon Sharma</t>
+  </si>
+  <si>
+    <t>Tanu Jagtap</t>
+  </si>
+  <si>
+    <t>Vesi Creations</t>
+  </si>
+  <si>
+    <t>Vardhan Nahar</t>
+  </si>
+  <si>
+    <t>Shalini Israni</t>
+  </si>
+  <si>
+    <t>Shamine Singh</t>
+  </si>
+  <si>
+    <t>Athenlc Brady</t>
+  </si>
+  <si>
+    <t>by Paypal</t>
+  </si>
+  <si>
+    <t>Attachment</t>
+  </si>
+  <si>
+    <t>sanjeev@aviradigital.com.pdf</t>
+  </si>
+  <si>
+    <t>divyat2017@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>rbhalla69@hotmail.com.pdf</t>
+  </si>
+  <si>
+    <t>sri1212@yahoo.com.pdf</t>
+  </si>
+  <si>
+    <t>bkheskani85@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>nanduri.surya@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>svuppala@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>tejoo.kiran@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>saironprasanna@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>delna.mary.john@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>povneet@hotmail.com.pdf</t>
+  </si>
+  <si>
+    <t>iphadke@hotmail.com.pdf</t>
+  </si>
+  <si>
+    <t>sukesh.ram7@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>sukuk2003@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>akshitsinghdutt@outlook.com.pdf</t>
+  </si>
+  <si>
+    <t>emailmohit@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>chandasaikiran@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>ajay.dusane@rutgers.edu.pdf</t>
+  </si>
+  <si>
+    <t>darasimpson4@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>ajeetsharma@sbcglobal.net.pdf</t>
+  </si>
+  <si>
+    <t>tanusri.ravi@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>neetuh1@yahoo.com.pdf</t>
+  </si>
+  <si>
+    <t>vardhan.nahar@icloud.com.pdf</t>
+  </si>
+  <si>
+    <t>shaliny.i@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>s.shamine@yahoo.com.pdf</t>
+  </si>
+  <si>
+    <t>athenlcbrady@gmail.com.pdf</t>
+  </si>
+  <si>
+    <t>Kiran Bambulkar</t>
+  </si>
+  <si>
+    <t>sanjeev@aviradigital.com</t>
   </si>
 </sst>
 </file>
@@ -143,18 +380,10 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,13 +401,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,18 +447,35 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,285 +788,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA47EF38-5A35-DC40-9EA8-A22331791382}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44850</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D6" s="6">
+        <v>675</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D7" s="6">
+        <v>600</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="6">
+        <v>600</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="6">
+        <v>600</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="6">
+        <v>360</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="6">
+        <v>300</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D12" s="6">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D13" s="6">
+        <v>252</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D14" s="6">
+        <v>240</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D15" s="6">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D16" s="6">
+        <v>180</v>
+      </c>
+      <c r="E16" t="s">
+        <v>82</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>44986</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E2">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D17" s="6">
+        <v>180</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2">
-        <v>44987</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1001</v>
-      </c>
-      <c r="E3">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D18" s="6">
+        <v>180</v>
+      </c>
+      <c r="E18" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44988</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1002</v>
-      </c>
-      <c r="E4">
-        <v>125</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D19" s="6">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44989</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1003</v>
-      </c>
-      <c r="E5">
-        <v>126</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D20" s="6">
+        <v>120</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>44990</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1004</v>
-      </c>
-      <c r="E6">
-        <v>127</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D21" s="6">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>44991</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1005</v>
-      </c>
-      <c r="E7">
-        <v>128</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D22" s="6">
+        <v>120</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2">
-        <v>44992</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1006</v>
-      </c>
-      <c r="E8">
-        <v>129</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D23" s="6">
+        <v>120</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>44993</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1007</v>
-      </c>
-      <c r="E9">
-        <v>130</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D24" s="6">
+        <v>100</v>
+      </c>
+      <c r="E24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44994</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1008</v>
-      </c>
-      <c r="E10">
-        <v>131</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D25" s="6">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="2">
-        <v>44995</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1009</v>
-      </c>
-      <c r="E11">
-        <v>132</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D26" s="6">
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2">
-        <v>44996</v>
-      </c>
-      <c r="D12" s="3">
-        <v>1010</v>
-      </c>
-      <c r="E12">
-        <v>133</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44997</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1011</v>
-      </c>
-      <c r="E13">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
+      <c r="B27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44926</v>
+      </c>
+      <c r="D27" s="6">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{B5201455-FF10-6441-A8D0-D4A10C0029E6}"/>
-    <hyperlink ref="A3:A13" r:id="rId2" display="tejoo@saveindianfarmers.org" xr:uid="{5983F771-FE5A-6A4E-A720-5D16199FFA2E}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{2EBF0107-40B2-394B-8D87-6AFF1FB68DD4}"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>